--- a/inst/MICCAI-Challenge-2012-Label-Information.xlsx
+++ b/inst/MICCAI-Challenge-2012-Label-Information.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnmuschelli/Dropbox/Packages/malf.templates/inst/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="345" windowWidth="26595" windowHeight="12555"/>
+    <workbookView xWindow="12800" yWindow="480" windowWidth="12800" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="Label Information" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="207">
   <si>
     <t>Unlabeled</t>
   </si>
@@ -623,13 +636,25 @@
   </si>
   <si>
     <t>Label Name</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>WM</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,6 +786,29 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1063,7 +1111,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1106,8 +1154,12 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1124,8 +1176,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1154,11 +1209,15 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1222,12 +1281,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1257,12 +1316,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1466,32 +1525,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U202"/>
+  <dimension ref="A1:T202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.140625" style="4"/>
-    <col min="20" max="20" width="9.140625" style="7"/>
-    <col min="21" max="21" width="9.140625" style="4"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="17" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.83203125" style="4"/>
+    <col min="20" max="20" width="8.83203125" style="7"/>
+    <col min="21" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>201</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1510,14 +1570,16 @@
       <c r="S1" s="5"/>
       <c r="T1" s="6"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1533,7 +1595,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1556,7 +1618,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1579,14 +1641,16 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1602,14 +1666,16 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1625,7 +1691,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1648,14 +1714,16 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1671,14 +1739,16 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1694,7 +1764,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1717,7 +1787,7 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1740,14 +1810,16 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1763,7 +1835,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1786,7 +1858,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1809,14 +1881,13 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1832,14 +1903,16 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1855,7 +1928,7 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1878,7 +1951,7 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1901,7 +1974,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1924,7 +1997,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1947,7 +2020,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1970,7 +2043,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1993,7 +2066,7 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2016,14 +2089,16 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -2039,7 +2114,7 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2062,7 +2137,7 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2085,7 +2160,7 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2108,7 +2183,7 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2131,7 +2206,7 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2154,7 +2229,7 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2177,14 +2252,16 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -2200,14 +2277,16 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -2223,14 +2302,16 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -2246,14 +2327,16 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -2269,14 +2352,16 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -2292,14 +2377,16 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -2315,14 +2402,16 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -2338,14 +2427,16 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -2361,14 +2452,16 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -2384,14 +2477,16 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -2407,14 +2502,16 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -2430,14 +2527,16 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -2453,14 +2552,16 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -2476,14 +2577,16 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -2499,14 +2602,16 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -2522,14 +2627,16 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -2545,14 +2652,16 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -2568,14 +2677,16 @@
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -2591,14 +2702,16 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -2614,14 +2727,16 @@
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -2637,14 +2752,16 @@
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -2660,14 +2777,16 @@
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -2683,14 +2802,16 @@
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="3"/>
+      <c r="C53" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -2706,14 +2827,16 @@
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="3"/>
+      <c r="C54" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -2729,14 +2852,16 @@
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="3"/>
+      <c r="C55" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -2752,14 +2877,16 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="3"/>
+      <c r="C56" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -2775,14 +2902,16 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="3"/>
+      <c r="C57" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -2798,14 +2927,16 @@
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="3"/>
+      <c r="C58" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -2821,14 +2952,16 @@
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="3"/>
+      <c r="C59" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -2844,14 +2977,16 @@
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="3"/>
+      <c r="C60" s="8" t="s">
+        <v>204</v>
+      </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -2867,14 +3002,16 @@
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="3"/>
+      <c r="C61" s="8" t="s">
+        <v>204</v>
+      </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -2890,14 +3027,16 @@
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="3"/>
+      <c r="C62" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -2913,14 +3052,16 @@
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="3"/>
+      <c r="C63" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -2936,14 +3077,16 @@
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="3"/>
+      <c r="C64" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -2959,14 +3102,16 @@
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="3"/>
+      <c r="C65" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -2982,14 +3127,16 @@
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="3"/>
+      <c r="C66" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -3005,14 +3152,16 @@
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="3"/>
+      <c r="C67" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -3028,7 +3177,7 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -3051,7 +3200,7 @@
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -3074,14 +3223,16 @@
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="3"/>
+      <c r="C70" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -3097,7 +3248,7 @@
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -3120,14 +3271,16 @@
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="3"/>
+      <c r="C72" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -3143,14 +3296,16 @@
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="3"/>
+      <c r="C73" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -3166,14 +3321,16 @@
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="3"/>
+      <c r="C74" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -3189,14 +3346,16 @@
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="3"/>
+      <c r="C75" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -3212,14 +3371,16 @@
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="3"/>
+      <c r="C76" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -3235,14 +3396,16 @@
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="3"/>
+      <c r="C77" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -3258,7 +3421,7 @@
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>80</v>
       </c>
@@ -3281,7 +3444,7 @@
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>81</v>
       </c>
@@ -3304,7 +3467,7 @@
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>82</v>
       </c>
@@ -3327,7 +3490,7 @@
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>83</v>
       </c>
@@ -3350,7 +3513,7 @@
       <c r="P81" s="3"/>
       <c r="Q81" s="3"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>84</v>
       </c>
@@ -3373,7 +3536,7 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>85</v>
       </c>
@@ -3396,7 +3559,7 @@
       <c r="P83" s="3"/>
       <c r="Q83" s="3"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>86</v>
       </c>
@@ -3419,7 +3582,7 @@
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>87</v>
       </c>
@@ -3442,7 +3605,7 @@
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>88</v>
       </c>
@@ -3465,14 +3628,16 @@
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>89</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="3"/>
+      <c r="C87" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
@@ -3488,14 +3653,16 @@
       <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>90</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="3"/>
+      <c r="C88" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
@@ -3511,14 +3678,16 @@
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>91</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="3"/>
+      <c r="C89" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
@@ -3534,14 +3703,16 @@
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>92</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="3"/>
+      <c r="C90" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
@@ -3557,7 +3728,7 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>93</v>
       </c>
@@ -3580,7 +3751,7 @@
       <c r="P91" s="3"/>
       <c r="Q91" s="3"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>97</v>
       </c>
@@ -3603,7 +3774,7 @@
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>98</v>
       </c>
@@ -3626,7 +3797,7 @@
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>99</v>
       </c>
@@ -3649,14 +3820,16 @@
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>100</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="3"/>
+      <c r="C95" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
@@ -3672,14 +3845,16 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>101</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="3"/>
+      <c r="C96" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
@@ -3695,14 +3870,16 @@
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>102</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C97" s="3"/>
+      <c r="C97" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
@@ -3718,14 +3895,16 @@
       <c r="P97" s="3"/>
       <c r="Q97" s="3"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>103</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C98" s="3"/>
+      <c r="C98" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
@@ -3741,14 +3920,16 @@
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>104</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C99" s="3"/>
+      <c r="C99" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
@@ -3764,14 +3945,16 @@
       <c r="P99" s="3"/>
       <c r="Q99" s="3"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>105</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C100" s="3"/>
+      <c r="C100" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
@@ -3787,14 +3970,16 @@
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>106</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C101" s="3"/>
+      <c r="C101" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
@@ -3810,14 +3995,16 @@
       <c r="P101" s="3"/>
       <c r="Q101" s="3"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>107</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C102" s="3"/>
+      <c r="C102" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
@@ -3833,14 +4020,16 @@
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>108</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C103" s="3"/>
+      <c r="C103" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
@@ -3856,14 +4045,16 @@
       <c r="P103" s="3"/>
       <c r="Q103" s="3"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>109</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C104" s="3"/>
+      <c r="C104" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
@@ -3879,14 +4070,16 @@
       <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>110</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C105" s="3"/>
+      <c r="C105" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
@@ -3902,14 +4095,16 @@
       <c r="P105" s="3"/>
       <c r="Q105" s="3"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>111</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C106" s="3"/>
+      <c r="C106" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
@@ -3925,14 +4120,16 @@
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>112</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C107" s="3"/>
+      <c r="C107" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
@@ -3948,14 +4145,16 @@
       <c r="P107" s="3"/>
       <c r="Q107" s="3"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>113</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C108" s="3"/>
+      <c r="C108" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
@@ -3971,14 +4170,16 @@
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>114</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C109" s="3"/>
+      <c r="C109" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
@@ -3994,14 +4195,16 @@
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>115</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C110" s="3"/>
+      <c r="C110" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
@@ -4017,14 +4220,16 @@
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>116</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C111" s="3"/>
+      <c r="C111" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
@@ -4040,14 +4245,16 @@
       <c r="P111" s="3"/>
       <c r="Q111" s="3"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>117</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C112" s="3"/>
+      <c r="C112" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
@@ -4063,14 +4270,16 @@
       <c r="P112" s="3"/>
       <c r="Q112" s="3"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>118</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C113" s="3"/>
+      <c r="C113" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
@@ -4086,14 +4295,16 @@
       <c r="P113" s="3"/>
       <c r="Q113" s="3"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>119</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C114" s="3"/>
+      <c r="C114" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
@@ -4109,14 +4320,16 @@
       <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>120</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C115" s="3"/>
+      <c r="C115" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
@@ -4132,14 +4345,16 @@
       <c r="P115" s="3"/>
       <c r="Q115" s="3"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>121</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C116" s="3"/>
+      <c r="C116" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
@@ -4155,14 +4370,16 @@
       <c r="P116" s="3"/>
       <c r="Q116" s="3"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>122</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C117" s="3"/>
+      <c r="C117" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
@@ -4178,14 +4395,16 @@
       <c r="P117" s="3"/>
       <c r="Q117" s="3"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>123</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C118" s="3"/>
+      <c r="C118" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
@@ -4201,14 +4420,16 @@
       <c r="P118" s="3"/>
       <c r="Q118" s="3"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>124</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C119" s="3"/>
+      <c r="C119" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
@@ -4224,14 +4445,16 @@
       <c r="P119" s="3"/>
       <c r="Q119" s="3"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>125</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C120" s="3"/>
+      <c r="C120" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
@@ -4247,14 +4470,16 @@
       <c r="P120" s="3"/>
       <c r="Q120" s="3"/>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>126</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C121" s="3"/>
+      <c r="C121" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
@@ -4270,14 +4495,16 @@
       <c r="P121" s="3"/>
       <c r="Q121" s="3"/>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>127</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C122" s="3"/>
+      <c r="C122" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
@@ -4293,14 +4520,16 @@
       <c r="P122" s="3"/>
       <c r="Q122" s="3"/>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>128</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C123" s="3"/>
+      <c r="C123" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
@@ -4316,14 +4545,16 @@
       <c r="P123" s="3"/>
       <c r="Q123" s="3"/>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>129</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C124" s="3"/>
+      <c r="C124" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
@@ -4339,14 +4570,16 @@
       <c r="P124" s="3"/>
       <c r="Q124" s="3"/>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>130</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C125" s="3"/>
+      <c r="C125" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
@@ -4362,14 +4595,16 @@
       <c r="P125" s="3"/>
       <c r="Q125" s="3"/>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>131</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C126" s="3"/>
+      <c r="C126" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
@@ -4385,14 +4620,16 @@
       <c r="P126" s="3"/>
       <c r="Q126" s="3"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>132</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C127" s="3"/>
+      <c r="C127" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
@@ -4408,14 +4645,16 @@
       <c r="P127" s="3"/>
       <c r="Q127" s="3"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>133</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C128" s="3"/>
+      <c r="C128" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
@@ -4431,14 +4670,16 @@
       <c r="P128" s="3"/>
       <c r="Q128" s="3"/>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>134</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C129" s="3"/>
+      <c r="C129" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
@@ -4454,14 +4695,16 @@
       <c r="P129" s="3"/>
       <c r="Q129" s="3"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>135</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C130" s="3"/>
+      <c r="C130" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
@@ -4477,14 +4720,16 @@
       <c r="P130" s="3"/>
       <c r="Q130" s="3"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>136</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C131" s="3"/>
+      <c r="C131" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
@@ -4500,14 +4745,16 @@
       <c r="P131" s="3"/>
       <c r="Q131" s="3"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>137</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C132" s="3"/>
+      <c r="C132" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
@@ -4523,14 +4770,16 @@
       <c r="P132" s="3"/>
       <c r="Q132" s="3"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>138</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C133" s="3"/>
+      <c r="C133" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
@@ -4546,14 +4795,16 @@
       <c r="P133" s="3"/>
       <c r="Q133" s="3"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>139</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C134" s="3"/>
+      <c r="C134" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
@@ -4569,14 +4820,16 @@
       <c r="P134" s="3"/>
       <c r="Q134" s="3"/>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>140</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C135" s="3"/>
+      <c r="C135" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
@@ -4592,14 +4845,16 @@
       <c r="P135" s="3"/>
       <c r="Q135" s="3"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>141</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C136" s="3"/>
+      <c r="C136" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
@@ -4615,14 +4870,16 @@
       <c r="P136" s="3"/>
       <c r="Q136" s="3"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>142</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C137" s="3"/>
+      <c r="C137" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
@@ -4638,14 +4895,16 @@
       <c r="P137" s="3"/>
       <c r="Q137" s="3"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>143</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C138" s="3"/>
+      <c r="C138" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
@@ -4661,14 +4920,16 @@
       <c r="P138" s="3"/>
       <c r="Q138" s="3"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>144</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C139" s="3"/>
+      <c r="C139" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
@@ -4684,14 +4945,16 @@
       <c r="P139" s="3"/>
       <c r="Q139" s="3"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>145</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C140" s="3"/>
+      <c r="C140" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
@@ -4707,14 +4970,16 @@
       <c r="P140" s="3"/>
       <c r="Q140" s="3"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>146</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C141" s="3"/>
+      <c r="C141" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
@@ -4730,14 +4995,16 @@
       <c r="P141" s="3"/>
       <c r="Q141" s="3"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>147</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C142" s="3"/>
+      <c r="C142" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
@@ -4753,14 +5020,16 @@
       <c r="P142" s="3"/>
       <c r="Q142" s="3"/>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>148</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C143" s="3"/>
+      <c r="C143" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
@@ -4776,14 +5045,16 @@
       <c r="P143" s="3"/>
       <c r="Q143" s="3"/>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>149</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C144" s="3"/>
+      <c r="C144" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
@@ -4799,14 +5070,16 @@
       <c r="P144" s="3"/>
       <c r="Q144" s="3"/>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>150</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C145" s="3"/>
+      <c r="C145" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
@@ -4822,14 +5095,16 @@
       <c r="P145" s="3"/>
       <c r="Q145" s="3"/>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>151</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C146" s="3"/>
+      <c r="C146" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
@@ -4845,14 +5120,16 @@
       <c r="P146" s="3"/>
       <c r="Q146" s="3"/>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>152</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C147" s="3"/>
+      <c r="C147" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
@@ -4868,14 +5145,16 @@
       <c r="P147" s="3"/>
       <c r="Q147" s="3"/>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>153</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C148" s="3"/>
+      <c r="C148" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
@@ -4891,14 +5170,16 @@
       <c r="P148" s="3"/>
       <c r="Q148" s="3"/>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>154</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C149" s="3"/>
+      <c r="C149" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
@@ -4914,14 +5195,16 @@
       <c r="P149" s="3"/>
       <c r="Q149" s="3"/>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>155</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C150" s="3"/>
+      <c r="C150" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
@@ -4937,14 +5220,16 @@
       <c r="P150" s="3"/>
       <c r="Q150" s="3"/>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>156</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C151" s="3"/>
+      <c r="C151" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
@@ -4960,14 +5245,16 @@
       <c r="P151" s="3"/>
       <c r="Q151" s="3"/>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>157</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C152" s="3"/>
+      <c r="C152" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
@@ -4983,14 +5270,16 @@
       <c r="P152" s="3"/>
       <c r="Q152" s="3"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>158</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C153" s="3"/>
+      <c r="C153" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
@@ -5006,14 +5295,16 @@
       <c r="P153" s="3"/>
       <c r="Q153" s="3"/>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>159</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C154" s="3"/>
+      <c r="C154" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
@@ -5029,14 +5320,16 @@
       <c r="P154" s="3"/>
       <c r="Q154" s="3"/>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>160</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C155" s="3"/>
+      <c r="C155" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
@@ -5052,14 +5345,16 @@
       <c r="P155" s="3"/>
       <c r="Q155" s="3"/>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>161</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C156" s="3"/>
+      <c r="C156" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
@@ -5075,14 +5370,16 @@
       <c r="P156" s="3"/>
       <c r="Q156" s="3"/>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>162</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C157" s="3"/>
+      <c r="C157" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
@@ -5098,14 +5395,16 @@
       <c r="P157" s="3"/>
       <c r="Q157" s="3"/>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>163</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C158" s="3"/>
+      <c r="C158" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
@@ -5121,14 +5420,16 @@
       <c r="P158" s="3"/>
       <c r="Q158" s="3"/>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>164</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C159" s="3"/>
+      <c r="C159" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
@@ -5144,14 +5445,16 @@
       <c r="P159" s="3"/>
       <c r="Q159" s="3"/>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>165</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C160" s="3"/>
+      <c r="C160" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
@@ -5167,14 +5470,16 @@
       <c r="P160" s="3"/>
       <c r="Q160" s="3"/>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>166</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C161" s="3"/>
+      <c r="C161" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
@@ -5190,14 +5495,16 @@
       <c r="P161" s="3"/>
       <c r="Q161" s="3"/>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>167</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C162" s="3"/>
+      <c r="C162" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
@@ -5213,14 +5520,16 @@
       <c r="P162" s="3"/>
       <c r="Q162" s="3"/>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>168</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C163" s="3"/>
+      <c r="C163" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
@@ -5236,14 +5545,16 @@
       <c r="P163" s="3"/>
       <c r="Q163" s="3"/>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>169</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C164" s="3"/>
+      <c r="C164" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
@@ -5259,14 +5570,16 @@
       <c r="P164" s="3"/>
       <c r="Q164" s="3"/>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>170</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C165" s="3"/>
+      <c r="C165" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
@@ -5282,14 +5595,16 @@
       <c r="P165" s="3"/>
       <c r="Q165" s="3"/>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>171</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C166" s="3"/>
+      <c r="C166" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
@@ -5305,14 +5620,16 @@
       <c r="P166" s="3"/>
       <c r="Q166" s="3"/>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>172</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C167" s="3"/>
+      <c r="C167" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
@@ -5328,14 +5645,16 @@
       <c r="P167" s="3"/>
       <c r="Q167" s="3"/>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>173</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C168" s="3"/>
+      <c r="C168" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
@@ -5351,14 +5670,16 @@
       <c r="P168" s="3"/>
       <c r="Q168" s="3"/>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>174</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C169" s="3"/>
+      <c r="C169" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
@@ -5374,14 +5695,16 @@
       <c r="P169" s="3"/>
       <c r="Q169" s="3"/>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>175</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C170" s="3"/>
+      <c r="C170" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
@@ -5397,14 +5720,16 @@
       <c r="P170" s="3"/>
       <c r="Q170" s="3"/>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>176</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C171" s="3"/>
+      <c r="C171" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
@@ -5420,14 +5745,16 @@
       <c r="P171" s="3"/>
       <c r="Q171" s="3"/>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>177</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C172" s="3"/>
+      <c r="C172" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
@@ -5443,14 +5770,16 @@
       <c r="P172" s="3"/>
       <c r="Q172" s="3"/>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>178</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C173" s="3"/>
+      <c r="C173" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
@@ -5466,14 +5795,16 @@
       <c r="P173" s="3"/>
       <c r="Q173" s="3"/>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>179</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C174" s="3"/>
+      <c r="C174" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
@@ -5489,14 +5820,16 @@
       <c r="P174" s="3"/>
       <c r="Q174" s="3"/>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>180</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C175" s="3"/>
+      <c r="C175" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
@@ -5512,14 +5845,16 @@
       <c r="P175" s="3"/>
       <c r="Q175" s="3"/>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>181</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C176" s="3"/>
+      <c r="C176" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
@@ -5535,14 +5870,16 @@
       <c r="P176" s="3"/>
       <c r="Q176" s="3"/>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>182</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C177" s="3"/>
+      <c r="C177" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
@@ -5558,14 +5895,16 @@
       <c r="P177" s="3"/>
       <c r="Q177" s="3"/>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>183</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C178" s="3"/>
+      <c r="C178" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
@@ -5581,14 +5920,16 @@
       <c r="P178" s="3"/>
       <c r="Q178" s="3"/>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>184</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C179" s="3"/>
+      <c r="C179" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
@@ -5604,14 +5945,16 @@
       <c r="P179" s="3"/>
       <c r="Q179" s="3"/>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>185</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C180" s="3"/>
+      <c r="C180" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
@@ -5627,14 +5970,16 @@
       <c r="P180" s="3"/>
       <c r="Q180" s="3"/>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>186</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C181" s="3"/>
+      <c r="C181" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
@@ -5650,14 +5995,16 @@
       <c r="P181" s="3"/>
       <c r="Q181" s="3"/>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>187</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C182" s="3"/>
+      <c r="C182" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
@@ -5673,14 +6020,16 @@
       <c r="P182" s="3"/>
       <c r="Q182" s="3"/>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>188</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C183" s="3"/>
+      <c r="C183" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
@@ -5696,14 +6045,16 @@
       <c r="P183" s="3"/>
       <c r="Q183" s="3"/>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>189</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C184" s="3"/>
+      <c r="C184" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
@@ -5719,14 +6070,16 @@
       <c r="P184" s="3"/>
       <c r="Q184" s="3"/>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>190</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C185" s="3"/>
+      <c r="C185" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
@@ -5742,14 +6095,16 @@
       <c r="P185" s="3"/>
       <c r="Q185" s="3"/>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>191</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C186" s="3"/>
+      <c r="C186" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
@@ -5765,14 +6120,16 @@
       <c r="P186" s="3"/>
       <c r="Q186" s="3"/>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>192</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C187" s="3"/>
+      <c r="C187" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
@@ -5788,14 +6145,16 @@
       <c r="P187" s="3"/>
       <c r="Q187" s="3"/>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>193</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C188" s="3"/>
+      <c r="C188" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
@@ -5811,14 +6170,16 @@
       <c r="P188" s="3"/>
       <c r="Q188" s="3"/>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>194</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C189" s="3"/>
+      <c r="C189" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
@@ -5834,14 +6195,16 @@
       <c r="P189" s="3"/>
       <c r="Q189" s="3"/>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>195</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C190" s="3"/>
+      <c r="C190" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
@@ -5857,14 +6220,16 @@
       <c r="P190" s="3"/>
       <c r="Q190" s="3"/>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>196</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C191" s="3"/>
+      <c r="C191" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
@@ -5880,14 +6245,16 @@
       <c r="P191" s="3"/>
       <c r="Q191" s="3"/>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>197</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C192" s="3"/>
+      <c r="C192" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
@@ -5903,14 +6270,16 @@
       <c r="P192" s="3"/>
       <c r="Q192" s="3"/>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>198</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C193" s="3"/>
+      <c r="C193" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
@@ -5926,14 +6295,16 @@
       <c r="P193" s="3"/>
       <c r="Q193" s="3"/>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>199</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C194" s="3"/>
+      <c r="C194" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
@@ -5949,14 +6320,16 @@
       <c r="P194" s="3"/>
       <c r="Q194" s="3"/>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>200</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C195" s="3"/>
+      <c r="C195" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
@@ -5972,14 +6345,16 @@
       <c r="P195" s="3"/>
       <c r="Q195" s="3"/>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>201</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C196" s="3"/>
+      <c r="C196" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
@@ -5995,14 +6370,16 @@
       <c r="P196" s="3"/>
       <c r="Q196" s="3"/>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>202</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C197" s="3"/>
+      <c r="C197" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
@@ -6018,14 +6395,16 @@
       <c r="P197" s="3"/>
       <c r="Q197" s="3"/>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>203</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C198" s="3"/>
+      <c r="C198" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
@@ -6041,14 +6420,16 @@
       <c r="P198" s="3"/>
       <c r="Q198" s="3"/>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>204</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C199" s="3"/>
+      <c r="C199" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
@@ -6064,14 +6445,16 @@
       <c r="P199" s="3"/>
       <c r="Q199" s="3"/>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>205</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C200" s="3"/>
+      <c r="C200" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
@@ -6087,14 +6470,16 @@
       <c r="P200" s="3"/>
       <c r="Q200" s="3"/>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>206</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C201" s="3"/>
+      <c r="C201" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
@@ -6110,14 +6495,16 @@
       <c r="P201" s="3"/>
       <c r="Q201" s="3"/>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>207</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C202" s="3"/>
+      <c r="C202" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
